--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9E20F6-CEA5-4DE2-A77D-4231BD23E5BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{2C9E20F6-CEA5-4DE2-A77D-4231BD23E5BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{80652CB6-1A03-4A92-9B80-D9BD1005D30E}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>일반화학및연습Ⅰ(영강)</t>
   </si>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>A+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,451 +516,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
+        <v>2013</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>2013</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>2014</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>26</v>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>2014</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>29</v>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
         <v>2014</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>26</v>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
         <v>2014</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>26</v>
       </c>
-      <c r="G19" t="b">
+      <c r="H19" t="b">
         <v>0</v>
       </c>
     </row>
